--- a/Design_Proposal/Power_SubModule/Power_BOM.xlsx
+++ b/Design_Proposal/Power_SubModule/Power_BOM.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lesel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Courses\2022\EEE3088F\EEE3088F_PROJECT\Design_Proposal\Power_SubModule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CFFECC-140A-4B6B-9692-28B4FB38CDA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FAD9C3B-35C2-4406-913A-67AAD6CDF7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{56A6979A-9015-4010-AC18-66BDF4A4E5DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{56A6979A-9015-4010-AC18-66BDF4A4E5DC}"/>
   </bookViews>
   <sheets>
     <sheet name="power" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">power!$A$1:$G$21</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">power!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="116">
   <si>
     <t>Column1</t>
   </si>
@@ -124,21 +125,12 @@
     <t>Keystone</t>
   </si>
   <si>
-    <t>10u</t>
-  </si>
-  <si>
     <t>pspice:CAP</t>
   </si>
   <si>
     <t>~</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -160,24 +152,6 @@
     <t>Red</t>
   </si>
   <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>BAT60JFILM</t>
-  </si>
-  <si>
-    <t>DiodeV2:BAT60JFILM</t>
-  </si>
-  <si>
-    <t>SOD2513X117N</t>
-  </si>
-  <si>
-    <t>https://www.mouser.jp/datasheet/2/389/cd00001944-1795661.pdf</t>
-  </si>
-  <si>
-    <t>STMicroelectronics</t>
-  </si>
-  <si>
     <t>IC1</t>
   </si>
   <si>
@@ -292,21 +266,12 @@
     <t>5</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>J2, J3</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -358,9 +323,6 @@
     <t>C96446</t>
   </si>
   <si>
-    <t>C1525</t>
-  </si>
-  <si>
     <t>0.001</t>
   </si>
   <si>
@@ -373,18 +335,6 @@
     <t>0.05</t>
   </si>
   <si>
-    <t>Header-Male-2.54_1x6</t>
-  </si>
-  <si>
-    <t>BOOMELE</t>
-  </si>
-  <si>
-    <t>C37208</t>
-  </si>
-  <si>
-    <t>0.027</t>
-  </si>
-  <si>
     <t>FORTUNE</t>
   </si>
   <si>
@@ -445,13 +395,7 @@
     <t>0.047</t>
   </si>
   <si>
-    <t>0.004</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>C133103</t>
+    <t>10uF</t>
   </si>
 </sst>
 </file>
@@ -459,7 +403,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -499,46 +443,12 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -549,66 +459,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{B68F0A11-06D2-49B4-A28C-05446BAA22B4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="30" unboundColumnsRight="4">
-    <queryTableFields count="11">
-      <queryTableField id="1" name="Column1" tableColumnId="1"/>
-      <queryTableField id="2" name="Column2" tableColumnId="2"/>
-      <queryTableField id="3" name="Column3" tableColumnId="3"/>
-      <queryTableField id="4" name="Column4" tableColumnId="4"/>
-      <queryTableField id="5" name="Column5" tableColumnId="5"/>
-      <queryTableField id="6" name="Column6" tableColumnId="6"/>
-      <queryTableField id="7" name="Column7" tableColumnId="7"/>
-      <queryTableField id="26" dataBound="0" tableColumnId="26"/>
-      <queryTableField id="27" dataBound="0" tableColumnId="27"/>
-      <queryTableField id="28" dataBound="0" tableColumnId="28"/>
-      <queryTableField id="29" dataBound="0" tableColumnId="29"/>
-    </queryTableFields>
-    <queryTableDeletedFields count="18">
-      <deletedField name="Column8"/>
-      <deletedField name="Column9"/>
-      <deletedField name="Column10"/>
-      <deletedField name="Column11"/>
-      <deletedField name="Column13"/>
-      <deletedField name="Column14"/>
-      <deletedField name="Column15"/>
-      <deletedField name="Column12"/>
-      <deletedField name="Column16"/>
-      <deletedField name="Column17"/>
-      <deletedField name="Column18"/>
-      <deletedField name="Column19"/>
-      <deletedField name="Column20"/>
-      <deletedField name="Column21"/>
-      <deletedField name="Column22"/>
-      <deletedField name="Column23"/>
-      <deletedField name="Column24"/>
-      <deletedField name="Column25"/>
-    </queryTableDeletedFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F68D425F-0ECE-40F8-947F-5759216BEC52}" name="power" displayName="power" ref="A1:K54" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K54" xr:uid="{F68D425F-0ECE-40F8-947F-5759216BEC52}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{A34FE05F-A1B8-4E6C-9569-A4130E4E2CD3}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{4DB65164-406B-4E2F-9ADF-25E7A7B05A88}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{B2EBFC4A-1F63-472A-9C10-C63E3235A424}" uniqueName="3" name="Column3" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{4AEAE053-DE25-4909-A210-7EBF61DB9884}" uniqueName="4" name="Column4" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{9C45DB3E-A600-4F2A-ABF8-DE0779D18757}" uniqueName="5" name="Column5" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{1FD6088C-524F-4FC5-B56D-FA98E6A9EC8C}" uniqueName="6" name="Column6" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{2E2F3C4C-75F4-4C82-9A0C-4501B75FFBB6}" uniqueName="7" name="Column7" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="26" xr3:uid="{13755653-901B-45DD-9A24-7B2452DFF093}" uniqueName="26" name="Column8" queryTableFieldId="26" dataDxfId="3"/>
-    <tableColumn id="27" xr3:uid="{3FF59538-9788-4FB9-8F7E-1525113F133A}" uniqueName="27" name="Column9" queryTableFieldId="27" dataDxfId="2"/>
-    <tableColumn id="28" xr3:uid="{D33BCDF7-8327-4331-A0B3-F114AFB92596}" uniqueName="28" name="Column10" queryTableFieldId="28" dataDxfId="1"/>
-    <tableColumn id="29" xr3:uid="{38B64D71-0130-4FC2-B34A-8A8306010B52}" uniqueName="29" name="Column11" queryTableFieldId="29" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,21 +758,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E6EF98-5946-48E1-A2DB-1069CE0E4298}">
-  <dimension ref="A1:K100"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="10.77734375" customWidth="1"/>
+    <col min="1" max="2" width="10.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -957,7 +807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -970,9 +820,9 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -997,7 +847,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1024,7 +874,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1047,24 +897,24 @@
         <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -1085,196 +935,196 @@
         <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
         <v>102</v>
       </c>
-      <c r="K7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K9" t="s">
         <v>103</v>
       </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" t="s">
-        <v>119</v>
-      </c>
       <c r="K10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>43</v>
@@ -1292,94 +1142,94 @@
         <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>96</v>
+      </c>
+      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
         <v>98</v>
       </c>
-      <c r="J12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="I13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" t="s">
-        <v>129</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
         <v>98</v>
       </c>
-      <c r="J13" t="s">
-        <v>130</v>
-      </c>
-      <c r="K13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" t="s">
-        <v>109</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>52</v>
@@ -1388,74 +1238,74 @@
         <v>53</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H15" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J16" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>58</v>
@@ -1464,162 +1314,96 @@
         <v>11</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="K18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" t="s">
-        <v>127</v>
-      </c>
-      <c r="K21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1632,7 +1416,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1645,7 +1429,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1658,7 +1442,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1671,7 +1455,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1684,7 +1468,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1697,7 +1481,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1710,7 +1494,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1723,73 +1507,31 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D98" s="2"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
+    <row r="78" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="95" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -1799,7 +1541,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
